--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MngSchedule_SendMoneyAddNew.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MngSchedule_SendMoneyAddNew.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-9242020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="133">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>status_query</t>
-  </si>
-  <si>
     <t>From_Account_Value</t>
   </si>
   <si>
@@ -80,48 +77,21 @@
     <t>to_bank_query</t>
   </si>
   <si>
-    <t>bene_name_query</t>
-  </si>
-  <si>
     <t>purpose_query</t>
   </si>
   <si>
     <t>db_val</t>
   </si>
   <si>
-    <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '{account_number}' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = '{customer_name}');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}');COMMIT;END;</t>
-  </si>
-  <si>
-    <t>00580052365603</t>
-  </si>
-  <si>
     <t>HBL / Konnect</t>
   </si>
   <si>
-    <t>06047900194203</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>AliAbbas1</t>
-  </si>
-  <si>
-    <t>03121223345</t>
-  </si>
-  <si>
     <t>aliabb111@gmail.com</t>
   </si>
   <si>
-    <t>12345</t>
-  </si>
-  <si>
     <t>pakistan2</t>
   </si>
   <si>
-    <t>Money sent successfully.</t>
-  </si>
-  <si>
     <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
@@ -137,29 +107,329 @@
     <t>SELECT DB.BANK_NAME FROM DC_FUND_TRANSFER_BANK DB WHERE DB.FUND_TRANSFER_BANK_ID = (SELECT DT.BANK_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
-    <t>SELECT DT.FT_TO_ACCOUNT_TITLE FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
-  </si>
-  <si>
     <t>SELECT DT.PURPOSE_OF_PAYMENT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
     <t>DIGITAL_CHANNEL_SEC</t>
   </si>
   <si>
-    <t>When verifying schedule payment from My Account with valid Account Details are provided with adding new Bene</t>
-  </si>
-  <si>
     <t>schedule_count_query</t>
   </si>
   <si>
     <t>SELECT count(*) FROM DC_SCHEDULED_TRAN_MASTER TM where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and TM.LAST_EXECUTION_DATE &gt; sysdate and TM.IS_DELETED = 0</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Frequency_Value</t>
+  </si>
+  <si>
+    <t>From_Date_Value</t>
+  </si>
+  <si>
+    <t>To_Date_Value</t>
+  </si>
+  <si>
+    <t>frequency_query</t>
+  </si>
+  <si>
+    <t>bene_count_query</t>
+  </si>
+  <si>
+    <t>Select count(*) from DC_FUND_TRANSFER_BENEFICIARY b where B.CUSTOMER_INFO_ID = ( Select CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO K WHERE K.CUSTOMER_NAME  = '{customer_name}') and B.IS_DELETED = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT DT.FREQUENCY FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>04897901885203</t>
+  </si>
+  <si>
+    <t>00147900721001</t>
+  </si>
+  <si>
+    <t>Courier Services</t>
+  </si>
+  <si>
+    <t>AliSchedule13</t>
+  </si>
+  <si>
+    <t>03291234579</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction is successful. </t>
+  </si>
+  <si>
+    <t>PK50HABB0013227900983503</t>
+  </si>
+  <si>
+    <t>AliSchedule14</t>
+  </si>
+  <si>
+    <t>03291234580</t>
+  </si>
+  <si>
+    <t>23457913894303</t>
+  </si>
+  <si>
+    <t>AliSch1</t>
+  </si>
+  <si>
+    <t>08497900068901</t>
+  </si>
+  <si>
+    <t>AliSch2</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>00277900350711</t>
+  </si>
+  <si>
+    <t>AliSch3</t>
+  </si>
+  <si>
+    <t>Fortnightly</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>07867901527301</t>
+  </si>
+  <si>
+    <t>AliSch4</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>07867916249703</t>
+  </si>
+  <si>
+    <t>AliSch5</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>3200</t>
+  </si>
+  <si>
+    <t>Askari Commercial Bank Limited</t>
+  </si>
+  <si>
+    <t>02800320004636</t>
+  </si>
+  <si>
+    <t>ibft1</t>
+  </si>
+  <si>
+    <t>United Bank Limited</t>
+  </si>
+  <si>
+    <t>0605060510946074</t>
+  </si>
+  <si>
+    <t>ibft2</t>
+  </si>
+  <si>
+    <t>Standard Chartered Bank</t>
+  </si>
+  <si>
+    <t>01719020101</t>
+  </si>
+  <si>
+    <t>ibft3</t>
+  </si>
+  <si>
+    <t>BankIslami Pakistan Limited</t>
+  </si>
+  <si>
+    <t>100605050300201</t>
+  </si>
+  <si>
+    <t>ibft4</t>
+  </si>
+  <si>
+    <t>MCB Bank Limited</t>
+  </si>
+  <si>
+    <t>0300777261006679</t>
+  </si>
+  <si>
+    <t>ibft5</t>
+  </si>
+  <si>
+    <t>Bank AL Habib Limited</t>
+  </si>
+  <si>
+    <t>PK27BAHL1083009501262002</t>
+  </si>
+  <si>
+    <t>ibftiban1</t>
+  </si>
+  <si>
+    <t>PK97BAHL1108009500890601</t>
+  </si>
+  <si>
+    <t>ibftiban2</t>
+  </si>
+  <si>
+    <t>PK48BAHL0070009500457801</t>
+  </si>
+  <si>
+    <t>ibftiban3</t>
+  </si>
+  <si>
+    <t>ibftiban4</t>
+  </si>
+  <si>
+    <t>ibftiban5</t>
+  </si>
+  <si>
+    <t>22667230559903</t>
+  </si>
+  <si>
+    <t>loan1</t>
+  </si>
+  <si>
+    <t>23087900855910</t>
+  </si>
+  <si>
+    <t>fcy1</t>
+  </si>
+  <si>
+    <t>12497900564101</t>
+  </si>
+  <si>
+    <t>moneyclub1</t>
+  </si>
+  <si>
+    <t>03334900125</t>
+  </si>
+  <si>
+    <t>branchless1</t>
+  </si>
+  <si>
+    <t>12757900758503</t>
+  </si>
+  <si>
+    <t>limitexceedsHBL</t>
+  </si>
+  <si>
+    <t>Model Bank</t>
+  </si>
+  <si>
+    <t>00020000011005730</t>
+  </si>
+  <si>
+    <t>limitexceedsIBFT</t>
+  </si>
+  <si>
+    <t>22837900580401</t>
+  </si>
+  <si>
+    <t>insufficient1</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>When Details are provided with all valid details MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When Details are provided with all valid details iban MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When valid HBL Acc is provided with valid dates Daily MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When valid HBL Acc is provided with valid dates Weekly MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When valid HBL Acc is provided with valid dates Fortnightly MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When valid HBL Acc is provided with valid dates Monthly MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When valid HBL Acc is provided with valid dates Quarterly MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When valid IBFT Acc is provided with valid dates Daily MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When valid IBFT Acc is provided with valid dates Weekly MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When valid IBFT Acc is provided with valid dates Fortnightly MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When valid IBFT Acc is provided with valid dates Monthly MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When valid IBFT Acc is provided with valid dates Quarterly MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When valid IBFT via IBAN Acc is provided with valid dates Daily MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When valid IBFT via IBAN Acc is provided with valid dates Weekly MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When valid IBFT via IBAN Acc is provided with valid dates Fortnightly MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When valid IBFT via IBAN Acc is provided with valid dates Monthly MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When valid IBFT via IBAN Acc is provided with valid dates Quarterly MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When Bene Account is LOAN MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When Bene Account is FCY MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When Bene Account is MONEY CLUB MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When Bene Account is BRANCHLESS Konnect MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When Daily Limit Exceeds on HBL Acc MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When Daily Limit Exceeds on IBFT Acc MngSch_Send_AddNew</t>
+  </si>
+  <si>
+    <t>When Senders have INSUFFICIENT BALANCE MngSch_Send_AddNew</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,12 +444,23 @@
       <family val="3"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,19 +480,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,178 +777,2042 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="105.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="105.140625" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="245.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="87.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="80.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="77.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="167.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="86.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="86.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="167.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="201" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="I2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="2">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="2">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="2">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="2">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="H9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="2">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="H10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="2">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="H11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="2">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="H12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="2">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="H13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="2">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="H14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="2">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="H15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="2">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="H16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="2">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="H17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="2">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="H18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="2">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="H19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="2">
+        <v>19</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" t="s">
         <v>20</v>
       </c>
+      <c r="L20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="2">
+        <v>20</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="S21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="X21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="2">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O22" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="T22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="Y22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="Z22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="2">
+        <v>600000</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O23" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="V23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="W23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="C24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="2">
+        <v>700000</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U2" t="s">
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="2">
+        <v>98500</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O25" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V2" t="s">
-        <v>39</v>
+      <c r="U25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>